--- a/KM5c_data/ODP_Site_1090.xlsx
+++ b/KM5c_data/ODP_Site_1090.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>9.77013234</v>
+        <v>9.73</v>
       </c>
       <c r="Q2">
-        <v>4.09332017</v>
+        <v>4.129912928701174</v>
       </c>
       <c r="R2">
-        <v>3.699774270000001</v>
+        <v>3.736367028701174</v>
       </c>
       <c r="S2">
         <v>2.105876752424242</v>
